--- a/Core Expeditions Visualized.xlsx
+++ b/Core Expeditions Visualized.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffkazmierski/Documents/GitHub/Zdetl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF69FFA-04F1-6F47-AEA4-F3C7B2296A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0380304E-A6E5-974C-9B6F-D89BAA4EDBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13800" activeTab="2" xr2:uid="{ED68172A-03B4-9B40-ADE7-54C1ACEDA7DC}"/>
+    <workbookView xWindow="26040" yWindow="-9500" windowWidth="21860" windowHeight="15880" activeTab="2" xr2:uid="{ED68172A-03B4-9B40-ADE7-54C1ACEDA7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A:$K</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>The Core Expeditions - Distance and Time Scale</t>
   </si>
@@ -406,12 +406,69 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>The Fevranzhtavr appears in the historical record.</t>
+  </si>
+  <si>
+    <t>Restart of space exploration.</t>
+  </si>
+  <si>
+    <t>Zdetl standardized.</t>
+  </si>
+  <si>
+    <t>Consulate established.</t>
+  </si>
+  <si>
+    <t>First Contact with Addaxur.</t>
+  </si>
+  <si>
+    <t>Expansion into surrounding sectors.</t>
+  </si>
+  <si>
+    <t>Zhodani Consulate adopts policy of absorbing human minor races in adjacent sectors.</t>
+  </si>
+  <si>
+    <t>Consulate reaches TL-12 (but still mostly TL 8-11)</t>
+  </si>
+  <si>
+    <t>Zhodani trade expeditions with the Sword Worlds.</t>
+  </si>
+  <si>
+    <t>Zhodani trade expeditions with the Darrians.</t>
+  </si>
+  <si>
+    <t>First contact with Aslan.</t>
+  </si>
+  <si>
+    <t>Imperial colonization of Tloql sector begins.</t>
+  </si>
+  <si>
+    <t>First contact with Imperial traders in Tloql sector.</t>
+  </si>
+  <si>
+    <t>Imperial explorations into Zhodani territory; Consulate is TL 13.</t>
+  </si>
+  <si>
+    <t>Establishment of Tozjabr.</t>
+  </si>
+  <si>
+    <t>First Frontier War begins.</t>
+  </si>
+  <si>
+    <t>First Frontier War ends.</t>
+  </si>
+  <si>
+    <t>Consulate attains TL-14.</t>
+  </si>
+  <si>
+    <t>First symptoms of Fienzhatshtiavl observed.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,6 +504,12 @@
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -560,12 +623,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,7 +1209,6 @@
       <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="CW5" s="12"/>
     </row>
     <row r="6" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1240,7 +1302,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1279,41 +1341,41 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AK12" s="16"/>
-      <c r="AN12" s="14" t="s">
+      <c r="AK12" s="15"/>
+      <c r="AN12" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
@@ -1388,19 +1450,19 @@
       <c r="G32" t="s">
         <v>53</v>
       </c>
-      <c r="AK32" s="16"/>
+      <c r="AK32" s="15"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="F33" s="10"/>
-      <c r="AI33" s="16"/>
-      <c r="AM33" s="16"/>
+      <c r="AI33" s="15"/>
+      <c r="AM33" s="15"/>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="F34" s="10"/>
-      <c r="AH34" s="16"/>
-      <c r="AN34" s="16"/>
+      <c r="AH34" s="15"/>
+      <c r="AN34" s="15"/>
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
@@ -1409,14 +1471,14 @@
     <row r="36" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M36" s="16"/>
-      <c r="AG36" s="16"/>
-      <c r="AK36" s="16"/>
-      <c r="AO36" s="16"/>
-      <c r="BJ36" s="16"/>
+      <c r="M36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="BJ36" s="15"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
@@ -1428,8 +1490,8 @@
     <row r="38" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="F38" s="10"/>
-      <c r="AH38" s="16"/>
-      <c r="AN38" s="16"/>
+      <c r="AH38" s="15"/>
+      <c r="AN38" s="15"/>
     </row>
     <row r="39" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
@@ -1437,8 +1499,8 @@
         <v>39</v>
       </c>
       <c r="F39" s="10"/>
-      <c r="AI39" s="16"/>
-      <c r="AM39" s="16"/>
+      <c r="AI39" s="15"/>
+      <c r="AM39" s="15"/>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
@@ -1446,7 +1508,7 @@
         <v>40</v>
       </c>
       <c r="F40" s="11"/>
-      <c r="AK40" s="16"/>
+      <c r="AK40" s="15"/>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
@@ -1537,10 +1599,10 @@
     <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AK61" s="16"/>
+      <c r="AK61" s="15"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
@@ -1718,7 +1780,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1907,78 +1969,78 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
-      <c r="B176" s="14" t="s">
+      <c r="B176" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="15"/>
+      <c r="A177" s="14"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="15"/>
+      <c r="A178" s="14"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="15"/>
+      <c r="A179" s="14"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="15"/>
+      <c r="A180" s="14"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="15"/>
+      <c r="A181" s="14"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="15"/>
+      <c r="A182" s="14"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="15"/>
+      <c r="A183" s="14"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="15"/>
+      <c r="A184" s="14"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="15"/>
+      <c r="A185" s="14"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="15"/>
+      <c r="A186" s="14"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="15"/>
+      <c r="A187" s="14"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="15"/>
+      <c r="A188" s="14"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="15"/>
+      <c r="A189" s="14"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="15"/>
+      <c r="A190" s="14"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="15"/>
+      <c r="A191" s="14"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="15"/>
+      <c r="A192" s="14"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="15"/>
+      <c r="A193" s="14"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="15"/>
+      <c r="A194" s="14"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="15"/>
+      <c r="A195" s="14"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="15"/>
+      <c r="A196" s="14"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="15"/>
+      <c r="A197" s="14"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="15"/>
+      <c r="A198" s="14"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="15"/>
+      <c r="A199" s="14"/>
       <c r="B199" t="s">
         <v>57</v>
       </c>
@@ -1991,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08ED8230-F5CD-BE49-B98A-C014DBECC145}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2003,261 +2065,476 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-6731</v>
+        <v>-6738</v>
       </c>
       <c r="B3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-6200</v>
+        <v>-6623</v>
       </c>
       <c r="B4">
-        <v>238</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>79</v>
+        <v>50.3</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-6000</v>
+        <v>-6400</v>
       </c>
       <c r="B5">
-        <v>327</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>80</v>
+        <v>149.19999999999999</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-5415</v>
+        <v>-6200</v>
       </c>
       <c r="B6">
-        <v>583</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>74</v>
+        <v>237.3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>-5341</v>
+        <v>-6059</v>
       </c>
       <c r="B7">
-        <v>616</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>81</v>
+        <v>300.10000000000002</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>-5326</v>
+        <v>-6000</v>
       </c>
       <c r="B8">
-        <v>657</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>82</v>
+        <v>326.10000000000002</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-5248</v>
+        <v>-5823</v>
       </c>
       <c r="B9">
-        <v>692</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>83</v>
+        <v>404.2</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>-5150</v>
+        <v>-5415</v>
       </c>
       <c r="B10">
-        <v>735</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>84</v>
+        <v>584.29999999999995</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>-4218</v>
+        <v>-5120</v>
       </c>
       <c r="B11">
-        <v>1114</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>75</v>
+        <v>715.2</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>-4074</v>
+        <v>-5000</v>
       </c>
       <c r="B12">
-        <v>1178</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>70</v>
+        <v>768.2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>-4034</v>
+        <v>-5341</v>
       </c>
       <c r="B13">
-        <v>1196</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>71</v>
+        <v>616</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>-4000</v>
+        <v>-5326</v>
       </c>
       <c r="B14">
-        <v>1211</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>63</v>
+        <v>657</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>-3400</v>
+        <v>-5248</v>
       </c>
       <c r="B15">
-        <v>1416</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>64</v>
+        <v>692</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>-2800</v>
+        <v>-5150</v>
       </c>
       <c r="B16">
-        <v>1741</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>78</v>
+        <v>735</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>-2300</v>
+        <v>-4800</v>
       </c>
       <c r="B17">
-        <v>1905</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>65</v>
+        <v>856.3</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>-2000</v>
+        <v>-4218</v>
       </c>
       <c r="B18">
-        <v>2095</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>76</v>
+        <v>1114.0999999999999</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>-1860</v>
+        <v>-4074</v>
       </c>
       <c r="B19">
-        <v>2101</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>66</v>
+        <v>1178</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>-1130</v>
+        <v>-4034</v>
       </c>
       <c r="B20">
-        <v>2425</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>67</v>
+        <v>1195.2</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>-1000</v>
+        <v>-4000</v>
       </c>
       <c r="B21">
-        <v>2537</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>77</v>
+        <v>1207.3</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>-90</v>
+        <v>-3400</v>
       </c>
       <c r="B22">
-        <v>2939</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>68</v>
+        <v>1416</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="B23">
-        <v>2979</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>72</v>
+        <v>1741.1</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>-2300</v>
+      </c>
+      <c r="B24">
+        <v>1905</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>-2000</v>
+      </c>
+      <c r="B25">
+        <v>2094.3000000000002</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-1860</v>
+      </c>
+      <c r="B26">
+        <v>2101</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-1200</v>
+      </c>
+      <c r="B27">
+        <v>2448.1999999999998</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-1130</v>
+      </c>
+      <c r="B28">
+        <v>2425</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-1000</v>
+      </c>
+      <c r="B29">
+        <v>2536.3000000000002</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-292</v>
+      </c>
+      <c r="B30">
+        <v>2849.3</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-187</v>
+      </c>
+      <c r="B31">
+        <v>2896.1</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-90</v>
+      </c>
+      <c r="B32">
+        <v>2939</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>2978.3</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>3001.1</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>3005.2</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>461</v>
+      </c>
+      <c r="B36">
+        <v>3182.3</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>500</v>
+      </c>
+      <c r="B37">
+        <v>3199.3</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>560</v>
+      </c>
+      <c r="B38">
+        <v>3226.2</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>589</v>
+      </c>
+      <c r="B39">
+        <v>3239.2</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>604</v>
+      </c>
+      <c r="B40">
+        <v>3245.3</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>750</v>
       </c>
-      <c r="B24">
-        <v>3311</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="B41">
+        <v>3310.2</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>753</v>
+      </c>
+      <c r="B42">
+        <v>3311.3</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1000</v>
+      </c>
+      <c r="B43">
+        <v>3421.1</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <f>(((150*SQRT(0.015))+0.4)+4)*0.3</f>
+        <v>6.8313519212621499</v>
       </c>
     </row>
   </sheetData>
